--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value357.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value357.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8225137131814149</v>
+        <v>0.948619544506073</v>
       </c>
       <c r="B1">
-        <v>1.348772676635843</v>
+        <v>2.977652072906494</v>
       </c>
       <c r="C1">
-        <v>3.004208645342587</v>
+        <v>4.24641752243042</v>
       </c>
       <c r="D1">
-        <v>3.219834127978109</v>
+        <v>2.084782600402832</v>
       </c>
       <c r="E1">
-        <v>1.080737553698262</v>
+        <v>1.241719245910645</v>
       </c>
     </row>
   </sheetData>
